--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163339.6872933415</v>
+        <v>159157.9767212032</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219457</v>
+        <v>33937088.13219459</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.0839105424607</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1147,7 +1147,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796773</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.5404125459097</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1201,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>89.87759236481781</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119.0839105424607</v>
+        <v>86.88034699023025</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>118.581122396536</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>8.665287392207604</v>
       </c>
       <c r="E10" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>104.8891084057994</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>82.6621924374279</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.56162857616406</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.0839105424607</v>
+        <v>119.083910542461</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>144.7444565007702</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>352.7693069597025</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>17.75123914303109</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>211.357228897126</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>11.86251181388956</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>20.79680112926798</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1672,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>96.2681189135765</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>17.75123914303109</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>226.0943009001716</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>217.0028616587195</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>152.8093197685211</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2064,10 +2064,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>137.6384805602085</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>363.4528697661723</v>
+        <v>110.9376597037965</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>74.42811009354939</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>106.6916994203325</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2329,13 +2329,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>297.8924924866667</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>54.91274684145272</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>93.00664472099429</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>74.4281100935485</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>156.7012890994291</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>109.5540470185014</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>30.54231102287983</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2778,10 +2778,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>237.0384485584308</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2800,13 +2800,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>183.4872045441995</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>65.45709821927974</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2958,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>67.45781990777039</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2967,10 +2967,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>120.6971064205482</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>395.1106502987859</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>145.4174272442976</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
@@ -3091,10 +3091,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>102.4723721420021</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>175.6738267513496</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>2.96348881255195</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>327.409847196189</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>77.20378078338572</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>11.45461388085721</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>321.9370827829817</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>11.90294272943302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>231.1678702636863</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>139.1118326435686</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T41" t="n">
-        <v>170.8454278428345</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3906,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>53.19117033386333</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>11.45461388085811</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>361.9987888703319</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>370.7828241688555</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>49.34995949258575</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>204.7995670140358</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>249.3463070821279</v>
+        <v>129.0595287564099</v>
       </c>
       <c r="C8" t="n">
-        <v>215.2442383059552</v>
+        <v>94.95745998023727</v>
       </c>
       <c r="D8" t="n">
-        <v>183.3748575208038</v>
+        <v>63.08807919508585</v>
       </c>
       <c r="E8" t="n">
-        <v>153.640516719503</v>
+        <v>33.35373839378509</v>
       </c>
       <c r="F8" t="n">
-        <v>129.8134911691148</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="G8" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="H8" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585569</v>
+        <v>23.57954741585571</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558026</v>
+        <v>55.41632306558034</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318069</v>
+        <v>103.131396931807</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183093</v>
+        <v>162.3261653183096</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590928</v>
+        <v>228.1917507590932</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326576</v>
+        <v>295.1231102326581</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336418</v>
+        <v>358.3244950336424</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455663</v>
+        <v>412.2654147455671</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245006</v>
+        <v>452.7727990245014</v>
       </c>
       <c r="R8" t="n">
-        <v>476.335642169843</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="S8" t="n">
-        <v>476.335642169843</v>
+        <v>401.405083464826</v>
       </c>
       <c r="T8" t="n">
-        <v>476.335642169843</v>
+        <v>281.1183051391078</v>
       </c>
       <c r="U8" t="n">
-        <v>476.335642169843</v>
+        <v>281.1183051391078</v>
       </c>
       <c r="V8" t="n">
-        <v>476.335642169843</v>
+        <v>171.4815247897041</v>
       </c>
       <c r="W8" t="n">
-        <v>475.5205916212803</v>
+        <v>170.6664742411414</v>
       </c>
       <c r="X8" t="n">
-        <v>460.4185322409951</v>
+        <v>155.5644148608562</v>
       </c>
       <c r="Y8" t="n">
-        <v>369.6330854078458</v>
+        <v>151.3186952009137</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115.9831740067546</v>
+        <v>388.577715917086</v>
       </c>
       <c r="C9" t="n">
-        <v>9.52671284339686</v>
+        <v>282.1212547537283</v>
       </c>
       <c r="D9" t="n">
-        <v>9.52671284339686</v>
+        <v>187.0309659002816</v>
       </c>
       <c r="E9" t="n">
-        <v>9.52671284339686</v>
+        <v>92.91055122723526</v>
       </c>
       <c r="F9" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="G9" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="H9" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="I9" t="n">
-        <v>42.5004579116044</v>
+        <v>16.43678475114683</v>
       </c>
       <c r="J9" t="n">
-        <v>67.70899752367932</v>
+        <v>134.3298561881832</v>
       </c>
       <c r="K9" t="n">
-        <v>100.1176749029952</v>
+        <v>166.7385335674992</v>
       </c>
       <c r="L9" t="n">
-        <v>143.6951411186845</v>
+        <v>210.3159997831885</v>
       </c>
       <c r="M9" t="n">
-        <v>194.5479887761003</v>
+        <v>261.1688474406045</v>
       </c>
       <c r="N9" t="n">
-        <v>246.7467599936371</v>
+        <v>313.3676186581414</v>
       </c>
       <c r="O9" t="n">
-        <v>294.4984377999697</v>
+        <v>361.1192964644741</v>
       </c>
       <c r="P9" t="n">
-        <v>332.8233691018318</v>
+        <v>399.4442277663362</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.4425707328069</v>
+        <v>425.0634293973113</v>
       </c>
       <c r="R9" t="n">
-        <v>476.335642169843</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="S9" t="n">
-        <v>476.335642169843</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="T9" t="n">
-        <v>476.335642169843</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="U9" t="n">
-        <v>476.335642169843</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="V9" t="n">
-        <v>476.335642169843</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="W9" t="n">
-        <v>356.5567306581904</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="X9" t="n">
-        <v>356.5567306581904</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="Y9" t="n">
-        <v>236.2699523324725</v>
+        <v>476.3356421698439</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>356.048863844125</v>
+        <v>101.7766924692913</v>
       </c>
       <c r="C10" t="n">
-        <v>356.048863844125</v>
+        <v>101.7766924692913</v>
       </c>
       <c r="D10" t="n">
-        <v>356.048863844125</v>
+        <v>93.02387692160688</v>
       </c>
       <c r="E10" t="n">
-        <v>235.7620855184071</v>
+        <v>93.02387692160688</v>
       </c>
       <c r="F10" t="n">
-        <v>115.4753071926892</v>
+        <v>93.02387692160688</v>
       </c>
       <c r="G10" t="n">
-        <v>9.52671284339686</v>
+        <v>93.02387692160688</v>
       </c>
       <c r="H10" t="n">
-        <v>9.52671284339686</v>
+        <v>93.02387692160688</v>
       </c>
       <c r="I10" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396878</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0024003011149</v>
+        <v>21.42271513642511</v>
       </c>
       <c r="K10" t="n">
-        <v>127.5511863760668</v>
+        <v>139.3157865734615</v>
       </c>
       <c r="L10" t="n">
-        <v>152.5669021405239</v>
+        <v>257.2088580104978</v>
       </c>
       <c r="M10" t="n">
-        <v>270.45997357756</v>
+        <v>283.5844228219528</v>
       </c>
       <c r="N10" t="n">
-        <v>296.2083864100847</v>
+        <v>309.3328356544774</v>
       </c>
       <c r="O10" t="n">
-        <v>319.9912131623031</v>
+        <v>333.1156624066959</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328069</v>
+        <v>451.0087338437322</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.335642169843</v>
+        <v>476.3356421698439</v>
       </c>
       <c r="R10" t="n">
-        <v>476.335642169843</v>
+        <v>462.6370274464458</v>
       </c>
       <c r="S10" t="n">
-        <v>476.335642169843</v>
+        <v>462.6370274464458</v>
       </c>
       <c r="T10" t="n">
-        <v>476.335642169843</v>
+        <v>462.6370274464458</v>
       </c>
       <c r="U10" t="n">
-        <v>476.335642169843</v>
+        <v>462.6370274464458</v>
       </c>
       <c r="V10" t="n">
-        <v>476.335642169843</v>
+        <v>462.6370274464458</v>
       </c>
       <c r="W10" t="n">
-        <v>476.335642169843</v>
+        <v>342.3502491207277</v>
       </c>
       <c r="X10" t="n">
-        <v>476.335642169843</v>
+        <v>222.0634707950095</v>
       </c>
       <c r="Y10" t="n">
-        <v>356.048863844125</v>
+        <v>101.7766924692913</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>316.9281030050443</v>
+        <v>1337.186882365126</v>
       </c>
       <c r="C11" t="n">
-        <v>316.9281030050443</v>
+        <v>899.0444095485495</v>
       </c>
       <c r="D11" t="n">
-        <v>316.9281030050443</v>
+        <v>463.134624722994</v>
       </c>
       <c r="E11" t="n">
         <v>316.9281030050443</v>
@@ -5035,22 +5035,22 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
@@ -5059,10 +5059,10 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
@@ -5074,19 +5074,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>1486.402314586986</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W11" t="n">
-        <v>1081.54685999802</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="X11" t="n">
-        <v>725.214226705391</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="Y11" t="n">
-        <v>316.9281030050443</v>
+        <v>1337.186882365126</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,31 +5111,31 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>730.9745012407179</v>
+        <v>750.0418582406339</v>
       </c>
       <c r="C13" t="n">
-        <v>558.4127897239429</v>
+        <v>577.4801467238589</v>
       </c>
       <c r="D13" t="n">
-        <v>558.4127897239429</v>
+        <v>411.6021539253816</v>
       </c>
       <c r="E13" t="n">
-        <v>388.6547859746801</v>
+        <v>241.8441501761188</v>
       </c>
       <c r="F13" t="n">
-        <v>211.9477319364363</v>
+        <v>65.13709613787503</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,19 +5205,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>818.7256495113488</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774551</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X13" t="n">
-        <v>922.7931199597051</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y13" t="n">
-        <v>922.7931199597051</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1166.555602307689</v>
+        <v>506.3558941930748</v>
       </c>
       <c r="C14" t="n">
-        <v>728.4131294911122</v>
+        <v>68.21342137649816</v>
       </c>
       <c r="D14" t="n">
-        <v>728.4131294911122</v>
+        <v>68.21342137649816</v>
       </c>
       <c r="E14" t="n">
-        <v>728.4131294911122</v>
+        <v>68.21342137649816</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>68.21342137649816</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
@@ -5311,19 +5311,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792597</v>
+        <v>1333.784481314111</v>
       </c>
       <c r="X14" t="n">
-        <v>1592.855172792597</v>
+        <v>914.6420178934214</v>
       </c>
       <c r="Y14" t="n">
-        <v>1592.855172792597</v>
+        <v>506.3558941930748</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235873</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
         <v>47.20655154895474</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>750.0418582406339</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C16" t="n">
-        <v>577.4801467238589</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D16" t="n">
-        <v>411.6021539253816</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>241.8441501761188</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>65.13709613787503</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G16" t="n">
         <v>47.20655154895474</v>
@@ -5442,13 +5442,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527957</v>
@@ -5469,19 +5469,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.698306725809</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W16" t="n">
-        <v>1414.6719023121</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.280147645513</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y16" t="n">
-        <v>941.8604769596211</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1128.043535737734</v>
+        <v>485.3490243655314</v>
       </c>
       <c r="C17" t="n">
-        <v>1128.043535737734</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F17" t="n">
         <v>47.20655154895474</v>
@@ -5512,13 +5512,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
         <v>805.4408022867025</v>
@@ -5545,22 +5545,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W17" t="n">
-        <v>1955.47212285877</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X17" t="n">
-        <v>1536.329659438081</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="Y17" t="n">
-        <v>1128.043535737734</v>
+        <v>713.7271060828765</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235861</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
         <v>47.20655154895474</v>
@@ -5621,7 +5621,7 @@
         <v>1676.651116233592</v>
       </c>
       <c r="S18" t="n">
-        <v>1632.030085633327</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T18" t="n">
         <v>1505.938530508979</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.291841223631</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="C19" t="n">
-        <v>919.7301297068562</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D19" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895474</v>
@@ -5676,22 +5676,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>413.3628026016839</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>997.5438780199987</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N19" t="n">
-        <v>1567.301592981533</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O19" t="n">
-        <v>2104.736723555076</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5703,22 +5703,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T19" t="n">
-        <v>2215.901038951972</v>
+        <v>2061.54819070094</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.514407000715</v>
+        <v>1783.161558749683</v>
       </c>
       <c r="V19" t="n">
-        <v>1650.558898871145</v>
+        <v>1496.206050620114</v>
       </c>
       <c r="W19" t="n">
-        <v>1650.558898871145</v>
+        <v>1224.179646206405</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.53013062851</v>
+        <v>978.7878915398176</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.110459942618</v>
+        <v>751.3682208539258</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1955.47212285877</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="C20" t="n">
-        <v>1517.329650042194</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="D20" t="n">
-        <v>1517.329650042194</v>
+        <v>1262.263781292319</v>
       </c>
       <c r="E20" t="n">
-        <v>1083.554905200489</v>
+        <v>828.4890364506141</v>
       </c>
       <c r="F20" t="n">
         <v>716.4307943255671</v>
@@ -5749,28 +5749,28 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.47212285877</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="X20" t="n">
-        <v>1955.47212285877</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="Y20" t="n">
-        <v>1955.47212285877</v>
+        <v>1698.173566117875</v>
       </c>
     </row>
     <row r="21">
@@ -5828,13 +5828,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
         <v>551.5786779960906</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1035.320054190021</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C22" t="n">
-        <v>862.7583426732459</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D22" t="n">
-        <v>696.8803498747686</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E22" t="n">
-        <v>527.1223461255058</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>350.4152920872621</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895474</v>
@@ -5916,19 +5916,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>326.783117436994</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M22" t="n">
-        <v>910.9641928553089</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N22" t="n">
-        <v>1480.721907816843</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O22" t="n">
-        <v>2018.157038390386</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2118.926094568069</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y22" t="n">
-        <v>1035.320054190021</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1655.935061595081</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="C23" t="n">
-        <v>1217.792588778505</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D23" t="n">
-        <v>781.8828039529492</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E23" t="n">
-        <v>348.1080591112444</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F23" t="n">
-        <v>348.1080591112444</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6007,7 +6007,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6019,22 +6019,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2060.790516184048</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="V23" t="n">
-        <v>2060.790516184048</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="W23" t="n">
-        <v>1655.935061595081</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="X23" t="n">
-        <v>1655.935061595081</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="Y23" t="n">
-        <v>1655.935061595081</v>
+        <v>2052.622535079674</v>
       </c>
     </row>
     <row r="24">
@@ -6047,37 +6047,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.081764785142</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C25" t="n">
-        <v>616.081764785142</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D25" t="n">
-        <v>450.2037719866647</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E25" t="n">
-        <v>356.2576662078826</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="F25" t="n">
-        <v>179.5506121696388</v>
+        <v>122.3864607343573</v>
       </c>
       <c r="G25" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909401</v>
       </c>
       <c r="L25" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092379</v>
       </c>
       <c r="M25" t="n">
-        <v>818.7256495113488</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N25" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O25" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1941.185114027048</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C26" t="n">
-        <v>1503.042641210471</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D26" t="n">
-        <v>1067.132856384916</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
-        <v>633.3581115432107</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>205.4906819524185</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G26" t="n">
-        <v>205.4906819524185</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
         <v>1463.013992431967</v>
@@ -6244,7 +6244,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W26" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.185114027048</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y26" t="n">
-        <v>1941.185114027048</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="27">
@@ -6287,28 +6287,28 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J27" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L27" t="n">
         <v>551.5786779960906</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.081764785142</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C28" t="n">
-        <v>616.081764785142</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D28" t="n">
-        <v>450.2037719866647</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E28" t="n">
-        <v>419.3529527716346</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F28" t="n">
-        <v>242.6458987333908</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H28" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>1106.33113894078</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M28" t="n">
-        <v>1412.355695376305</v>
+        <v>910.9641928553087</v>
       </c>
       <c r="N28" t="n">
-        <v>1539.854607180195</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527956</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X28" t="n">
-        <v>1035.320054190021</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041292</v>
+        <v>896.8524940391952</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1106.599419841793</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="C29" t="n">
-        <v>668.4569470252168</v>
+        <v>1410.876791836583</v>
       </c>
       <c r="D29" t="n">
-        <v>232.5471621996613</v>
+        <v>974.9670070110274</v>
       </c>
       <c r="E29" t="n">
-        <v>232.5471621996613</v>
+        <v>541.1922621693225</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>113.3248325785302</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.185114027048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y29" t="n">
-        <v>1532.898990326701</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="30">
@@ -6521,46 +6521,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q30" t="n">
         <v>1614.947661807679</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>858.3289888817353</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C31" t="n">
-        <v>685.7672773649603</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D31" t="n">
-        <v>519.889284566483</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E31" t="n">
-        <v>451.7500725384321</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F31" t="n">
-        <v>275.0430185001883</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>110.3018381127067</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>297.411816493872</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>839.492499880131</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M31" t="n">
-        <v>970.0968922186604</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N31" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527956</v>
+        <v>1901.869573656742</v>
       </c>
       <c r="P31" t="n">
         <v>2105.896438675981</v>
@@ -6645,28 +6645,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2360.327577447737</v>
+        <v>2093.984769840306</v>
       </c>
       <c r="U31" t="n">
-        <v>2081.94094549648</v>
+        <v>1815.598137889049</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.98543736691</v>
+        <v>1528.642629759479</v>
       </c>
       <c r="W31" t="n">
-        <v>1522.959032953202</v>
+        <v>1256.616225345771</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.567278286614</v>
+        <v>1256.616225345771</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.147607600722</v>
+        <v>1029.196554659879</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1060.102744102079</v>
+        <v>874.1756481082176</v>
       </c>
       <c r="C32" t="n">
-        <v>621.9602712855021</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D32" t="n">
-        <v>621.9602712855021</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E32" t="n">
-        <v>621.9602712855021</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>194.0928416947099</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
         <v>118.4065018001353</v>
@@ -6703,10 +6703,10 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
@@ -6724,28 +6724,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T32" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U32" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.402314586986</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W32" t="n">
-        <v>1486.402314586986</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X32" t="n">
-        <v>1486.402314586986</v>
+        <v>874.1756481082176</v>
       </c>
       <c r="Y32" t="n">
-        <v>1486.402314586986</v>
+        <v>874.1756481082176</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043084</v>
@@ -6782,22 +6782,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M33" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P33" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q33" t="n">
         <v>1614.947661807679</v>
@@ -6834,55 +6834,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>566.2333208532364</v>
+        <v>890.893515694255</v>
       </c>
       <c r="C34" t="n">
-        <v>393.6716093364613</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D34" t="n">
-        <v>393.6716093364613</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871985</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895473</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>688.1212571728194</v>
+        <v>588.0160255186809</v>
       </c>
       <c r="M34" t="n">
-        <v>818.7256495113488</v>
+        <v>718.6204178572102</v>
       </c>
       <c r="N34" t="n">
-        <v>1120.185357954412</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S34" t="n">
         <v>2215.901038951971</v>
@@ -6897,13 +6897,13 @@
         <v>1408.311674774551</v>
       </c>
       <c r="W34" t="n">
-        <v>1230.863364924703</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X34" t="n">
-        <v>985.4716102581153</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y34" t="n">
-        <v>758.0519395722235</v>
+        <v>890.893515694255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>488.3424474085132</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="C35" t="n">
-        <v>50.1999745919365</v>
+        <v>1517.329650042193</v>
       </c>
       <c r="D35" t="n">
-        <v>50.1999745919365</v>
+        <v>1081.419865216637</v>
       </c>
       <c r="E35" t="n">
-        <v>47.20655154895473</v>
+        <v>647.6451203749323</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895473</v>
+        <v>647.6451203749323</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.256885969251</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V35" t="n">
-        <v>1738.639935903077</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W35" t="n">
-        <v>1333.78448131411</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="X35" t="n">
-        <v>914.642017893421</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="Y35" t="n">
-        <v>914.642017893421</v>
+        <v>1955.472122858769</v>
       </c>
     </row>
     <row r="36">
@@ -7010,16 +7010,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>732.1113136517137</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C37" t="n">
-        <v>559.5496021349386</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D37" t="n">
-        <v>393.6716093364613</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E37" t="n">
         <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>744.992999204955</v>
+        <v>588.0160255186809</v>
       </c>
       <c r="M37" t="n">
-        <v>1329.17407462327</v>
+        <v>718.6204178572102</v>
       </c>
       <c r="N37" t="n">
-        <v>1898.931789584804</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P37" t="n">
         <v>2274.089213540313</v>
@@ -7119,7 +7119,7 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
         <v>2215.901038951971</v>
@@ -7134,13 +7134,13 @@
         <v>1408.311674774551</v>
       </c>
       <c r="W37" t="n">
-        <v>1396.74135772318</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1151.349603056593</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.9299323707007</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2108.089956131646</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C38" t="n">
-        <v>1669.94748331507</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D38" t="n">
-        <v>1234.037698489514</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E38" t="n">
-        <v>800.2629536478094</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F38" t="n">
-        <v>372.3955240570171</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U38" t="n">
-        <v>2108.089956131646</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V38" t="n">
-        <v>2108.089956131646</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W38" t="n">
-        <v>2108.089956131646</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X38" t="n">
-        <v>2108.089956131646</v>
+        <v>1281.294937054732</v>
       </c>
       <c r="Y38" t="n">
-        <v>2108.089956131646</v>
+        <v>873.0088133543854</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>858.9930882810432</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K39" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L39" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>896.8524940391952</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C40" t="n">
-        <v>724.2907825224202</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D40" t="n">
-        <v>558.4127897239429</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E40" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F40" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M40" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N40" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T40" t="n">
-        <v>2126.824678191488</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1848.438046240231</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1561.482538110662</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1561.482538110662</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>1316.090783444074</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y40" t="n">
-        <v>1088.671112758182</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>1485.275513477279</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>1485.275513477279</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>1049.365728651723</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>615.5909838100183</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>187.7235542192261</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2187.756438212551</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U41" t="n">
-        <v>2187.756438212551</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V41" t="n">
-        <v>2187.756438212551</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W41" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X41" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="Y41" t="n">
-        <v>1782.900983623584</v>
+        <v>1911.575083962186</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810432</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.1113136517137</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C43" t="n">
-        <v>559.5496021349386</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D43" t="n">
-        <v>393.6716093364613</v>
+        <v>277.6420604698887</v>
       </c>
       <c r="E43" t="n">
-        <v>223.9136055871985</v>
+        <v>277.6420604698887</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895474</v>
+        <v>100.935006431645</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>100.935006431645</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M43" t="n">
-        <v>1329.17407462327</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N43" t="n">
-        <v>1898.931789584804</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1396.74135772318</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>1151.349603056593</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.9299323707007</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895472</v>
@@ -7648,19 +7648,19 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
         <v>1775.969506973259</v>
@@ -7681,19 +7681,19 @@
         <v>2148.556325916848</v>
       </c>
       <c r="U44" t="n">
-        <v>2148.556325916848</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V44" t="n">
-        <v>2148.556325916848</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W44" t="n">
-        <v>2148.556325916848</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="X44" t="n">
-        <v>2148.556325916848</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="Y44" t="n">
-        <v>2148.556325916848</v>
+        <v>1152.340579151123</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.0817647851411</v>
+        <v>896.8524940391951</v>
       </c>
       <c r="C46" t="n">
-        <v>443.520053268366</v>
+        <v>724.29078252242</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364612</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895472</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G46" t="n">
         <v>47.20655154895472</v>
@@ -7806,25 +7806,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>477.6707703898316</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>1019.75145377609</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1150.35584611462</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1277.854757918509</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>1815.289888492052</v>
+        <v>1901.869573656742</v>
       </c>
       <c r="P46" t="n">
-        <v>2263.565838640077</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7836,22 +7836,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>2153.459327938609</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1875.072695987352</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270316</v>
+        <v>1588.117187857782</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856608</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.32005419002</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041283</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.309872867521911</v>
+        <v>99.93061208465465</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>106.4970253946632</v>
+        <v>39.20322876385148</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>99.33766198190352</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>93.81551078038294</v>
       </c>
       <c r="M10" t="n">
-        <v>92.44192588442539</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.2838794683833</v>
+        <v>98.52803488912321</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340652</v>
+        <v>11.35091287454554</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,16 +8853,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N13" t="n">
-        <v>175.7179764032066</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9090,16 +9090,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464602</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9324,25 +9324,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>69.27619576520605</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>156.7304232042868</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>156.7304232042873</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>156.7304232042869</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N25" t="n">
-        <v>175.7179764032071</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>177.1920849464598</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>7.999813646955658</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10281,13 +10281,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>104.3008170116716</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>263.8716243249363</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>175.7179764032061</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10749,19 +10749,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>263.8716243249363</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>158.2045317475391</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11223,16 +11223,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>158.2045317475398</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11472,10 +11472,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>274.1925087938255</v>
       </c>
       <c r="Q46" t="n">
-        <v>10.62967161639948</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>284.6925408925175</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -23314,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>62.18173182677992</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>145.3425294405757</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>31.5806082227956</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>411.7262434809948</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>374.7108632780496</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>93.63231361822073</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>145.3425294405757</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>195.9422738798871</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>214.5478253185804</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -23785,19 +23785,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>87.01543208710629</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>105.2993565597131</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,16 +23971,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>60.13588552871198</v>
+        <v>312.6510955910878</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>89.79110277694313</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>56.40206916327423</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>97.61517192065088</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>201.5672377222484</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>75.05377899077583</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>88.66565849005826</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>110.3230468420996</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>100.0994919970775</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -24508,7 +24508,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.5181126888903</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>5.899388561490809</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>240.1015507506849</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>330.0505661880378</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>100.6026038039997</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>119.1276454350792</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>38.650397789625</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>250.09023716302</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>68.36372225960525</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>93.63231361822176</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>426.4735085807358</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>68.09781721112853</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>87.0154320871068</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>257.8515264887142</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>73.57058162433583</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>403.0480960570494</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>8.656881591941101</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>256.395831763749</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>38.80811117274441</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -25690,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>77.82944968061393</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>257.8515264887133</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>60.03778590972684</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>30.02407587422152</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>114.8692533779068</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>35.02518484159165</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>387475.5695803807</v>
+        <v>387475.5695803806</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>387475.5695803807</v>
+        <v>387475.5695803806</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>387475.5695803807</v>
+        <v>387475.5695803806</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>387475.5695803807</v>
+        <v>387475.5695803806</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>387475.5695803807</v>
+        <v>387475.5695803806</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>387475.5695803807</v>
+        <v>387475.5695803806</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>387475.5695803807</v>
+        <v>387475.5695803806</v>
       </c>
     </row>
     <row r="16">
@@ -26319,7 +26319,7 @@
         <v>300946.1639116303</v>
       </c>
       <c r="D2" t="n">
-        <v>308284.7089369849</v>
+        <v>308284.7089369847</v>
       </c>
       <c r="E2" t="n">
         <v>180892.2069959399</v>
@@ -26328,19 +26328,19 @@
         <v>180892.2069959399</v>
       </c>
       <c r="G2" t="n">
+        <v>180892.20699594</v>
+      </c>
+      <c r="H2" t="n">
+        <v>180892.20699594</v>
+      </c>
+      <c r="I2" t="n">
         <v>180892.2069959399</v>
-      </c>
-      <c r="H2" t="n">
-        <v>180892.2069959399</v>
-      </c>
-      <c r="I2" t="n">
-        <v>180892.20699594</v>
       </c>
       <c r="J2" t="n">
         <v>180892.2069959399</v>
       </c>
       <c r="K2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="L2" t="n">
         <v>180892.2069959399</v>
@@ -26349,10 +26349,10 @@
         <v>180892.2069959399</v>
       </c>
       <c r="N2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959398</v>
       </c>
       <c r="O2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="P2" t="n">
         <v>180892.2069959399</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730577</v>
+        <v>117708.4675730579</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180444</v>
+        <v>439858.2450180441</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.0660031019</v>
+        <v>30139.06600310199</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597481</v>
+        <v>117374.581559748</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>273100.2520110486</v>
       </c>
       <c r="E4" t="n">
-        <v>18294.04639895361</v>
+        <v>18294.04639895362</v>
       </c>
       <c r="F4" t="n">
         <v>18294.04639895362</v>
       </c>
       <c r="G4" t="n">
+        <v>18294.04639895362</v>
+      </c>
+      <c r="H4" t="n">
         <v>18294.04639895361</v>
       </c>
-      <c r="H4" t="n">
-        <v>18294.04639895362</v>
-      </c>
       <c r="I4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="J4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="K4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="L4" t="n">
         <v>18294.04639895361</v>
@@ -26453,13 +26453,13 @@
         <v>18294.04639895361</v>
       </c>
       <c r="N4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="O4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="P4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239235</v>
+        <v>42922.56227239237</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963782</v>
@@ -26490,13 +26490,13 @@
         <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963781</v>
@@ -26505,13 +26505,13 @@
         <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31412.15240020253</v>
+        <v>-31444.05911770415</v>
       </c>
       <c r="C6" t="n">
-        <v>-31412.15240020253</v>
+        <v>-31444.05911770409</v>
       </c>
       <c r="D6" t="n">
-        <v>-125446.5729195137</v>
+        <v>-125446.5729195142</v>
       </c>
       <c r="E6" t="n">
-        <v>-323311.1656306959</v>
+        <v>-323865.0460739176</v>
       </c>
       <c r="F6" t="n">
-        <v>116547.0793873485</v>
+        <v>115993.1989441265</v>
       </c>
       <c r="G6" t="n">
-        <v>116547.0793873485</v>
+        <v>115993.1989441266</v>
       </c>
       <c r="H6" t="n">
-        <v>116547.0793873485</v>
+        <v>115993.1989441266</v>
       </c>
       <c r="I6" t="n">
-        <v>116547.0793873485</v>
+        <v>115993.1989441266</v>
       </c>
       <c r="J6" t="n">
-        <v>116547.0793873485</v>
+        <v>115993.1989441265</v>
       </c>
       <c r="K6" t="n">
-        <v>116547.0793873485</v>
+        <v>115993.1989441265</v>
       </c>
       <c r="L6" t="n">
-        <v>86408.01338424662</v>
+        <v>85854.13294102451</v>
       </c>
       <c r="M6" t="n">
-        <v>-827.5021723995815</v>
+        <v>-1381.38261562148</v>
       </c>
       <c r="N6" t="n">
-        <v>116547.0793873485</v>
+        <v>115993.1989441265</v>
       </c>
       <c r="O6" t="n">
-        <v>116547.0793873485</v>
+        <v>115993.1989441266</v>
       </c>
       <c r="P6" t="n">
-        <v>116547.0793873485</v>
+        <v>115993.1989441265</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.2504821748046</v>
+        <v>94.25048217480479</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932212</v>
@@ -26755,31 +26755,31 @@
         <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.083910542461</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619342</v>
@@ -26810,25 +26810,25 @@
         <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
         <v>590.081894361934</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.2504821748046</v>
+        <v>94.25048217480479</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184165</v>
+        <v>372.4514459184164</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.083910542461</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194734</v>
+        <v>470.9979838194733</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424606</v>
+        <v>119.083910542461</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194734</v>
+        <v>470.9979838194733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.083910542461</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194734</v>
+        <v>470.9979838194733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302.952664237598</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>277.921046109755</v>
+        <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
         <v>282.3584801445919</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796776</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2079358176206</v>
+        <v>97.12402527515961</v>
       </c>
       <c r="U8" t="n">
         <v>256.599767943293</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>250.450368019602</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>314.3256700985253</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.006951526504778</v>
+        <v>33.21051507873527</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>84.32851138425291</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656964</v>
+        <v>59.05530966656963</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
@@ -27994,13 +27994,13 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>64.8884043276019</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.137010886110673</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -28016,22 +28016,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>155.5539254782849</v>
       </c>
       <c r="E10" t="n">
-        <v>48.97651316930937</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>55.85607295540059</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>58.87629393274224</v>
+        <v>163.7654023385416</v>
       </c>
       <c r="H10" t="n">
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.6621924374279</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616408</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
@@ -28073,13 +28073,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>150.2222298271104</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>123.8539265774607</v>
       </c>
       <c r="Y10" t="n">
-        <v>106.0615634365721</v>
+        <v>106.0615634365718</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.378896410752983</v>
+        <v>0.3788964107529838</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623989</v>
+        <v>3.880372866623996</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555439</v>
+        <v>14.60740387555442</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214603</v>
+        <v>32.15835924214608</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931981</v>
+        <v>48.1970443093199</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990142</v>
+        <v>59.79269533990154</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462978</v>
+        <v>66.53089438462992</v>
       </c>
       <c r="N8" t="n">
-        <v>67.6074338116817</v>
+        <v>67.60743381168183</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725672</v>
+        <v>63.83978262725685</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679244</v>
+        <v>54.48577748679255</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670122</v>
+        <v>40.91654977670131</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196209</v>
+        <v>23.80085166196214</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033609</v>
+        <v>8.634101960033627</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071184</v>
+        <v>1.658619038071187</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023864</v>
+        <v>0.0303117128602387</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250514</v>
+        <v>0.2027274522250518</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857734</v>
+        <v>1.957920393857738</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888832</v>
+        <v>6.979870613888846</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780629</v>
+        <v>19.15329845780632</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688473</v>
+        <v>32.73603775688479</v>
       </c>
       <c r="L9" t="n">
-        <v>44.0176426421104</v>
+        <v>44.01764264211049</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852685</v>
+        <v>51.3665127852686</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286546</v>
+        <v>52.72603153286556</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619458</v>
+        <v>48.23401798619467</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006267</v>
+        <v>38.71205182006275</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542937</v>
+        <v>25.87798144542942</v>
       </c>
       <c r="R9" t="n">
-        <v>12.5868851477975</v>
+        <v>12.58688514779752</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531106</v>
+        <v>3.765573509531114</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457113</v>
+        <v>0.817133897345713</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322707</v>
+        <v>0.0133373323832271</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889919</v>
+        <v>0.1699598858889922</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540311</v>
+        <v>1.511097894540314</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643503</v>
+        <v>5.111157295643513</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235173</v>
+        <v>12.01616393235175</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055742</v>
+        <v>19.74624856055745</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207794</v>
+        <v>25.26839976207799</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803533</v>
+        <v>26.64198465803539</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063093</v>
+        <v>26.00849781063098</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547315</v>
+        <v>24.0230573254732</v>
       </c>
       <c r="P10" t="n">
-        <v>20.5558756533377</v>
+        <v>20.55587565333774</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839549</v>
+        <v>14.23182280839552</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517761</v>
+        <v>7.642014505517776</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083612</v>
+        <v>2.961937284083618</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075106</v>
+        <v>0.726192239707512</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308659</v>
+        <v>0.009270539230308678</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916795</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32642,28 +32642,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32879,28 +32879,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33353,28 +33353,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062837</v>
@@ -34380,28 +34380,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.194782396423</v>
+        <v>14.19478239642302</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214603</v>
+        <v>32.15835924214608</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931981</v>
+        <v>48.19704430931991</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990143</v>
+        <v>59.79269533990154</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462979</v>
+        <v>66.5308943846299</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168169</v>
+        <v>67.6074338116818</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725674</v>
+        <v>63.83978262725691</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679247</v>
+        <v>54.48577748679253</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670123</v>
+        <v>40.91654977670129</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196204</v>
+        <v>23.80085166196216</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.30681320020964</v>
+        <v>6.979870613888846</v>
       </c>
       <c r="J9" t="n">
-        <v>25.4631713253282</v>
+        <v>119.083910542461</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688473</v>
+        <v>32.7360377568848</v>
       </c>
       <c r="L9" t="n">
-        <v>44.0176426421104</v>
+        <v>44.0176426421105</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852685</v>
+        <v>51.36651278526858</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286545</v>
+        <v>52.72603153286559</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619457</v>
+        <v>48.23401798619466</v>
       </c>
       <c r="P9" t="n">
-        <v>38.7120518200627</v>
+        <v>38.71205182006275</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542938</v>
+        <v>25.87798144542944</v>
       </c>
       <c r="R9" t="n">
-        <v>119.0839105424607</v>
+        <v>51.79011391164903</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.4703913714324</v>
+        <v>12.01616393235175</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055742</v>
+        <v>119.083910542461</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207793</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="M10" t="n">
-        <v>119.0839105424607</v>
+        <v>26.64198465803537</v>
       </c>
       <c r="N10" t="n">
         <v>26.00849781063096</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547313</v>
+        <v>24.02305732547319</v>
       </c>
       <c r="P10" t="n">
-        <v>38.839755121721</v>
+        <v>119.083910542461</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424607</v>
+        <v>25.58273568294106</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,13 +35427,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
@@ -35506,7 +35506,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N13" t="n">
-        <v>304.5047560030951</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35810,16 +35810,16 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712374</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -35883,13 +35883,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -36044,25 +36044,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>171.0631211972095</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916795</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M22" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320033</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>227.2024143463636</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -36366,16 +36366,16 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36451,7 +36451,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>254.5083025654568</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N25" t="n">
-        <v>304.5047560030955</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>309.1157135712369</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>258.5173486362901</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36931,7 +36931,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>105.7776930081256</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485103</v>
+        <v>206.0877424436751</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,28 +37065,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37168,7 +37168,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R33" t="n">
         <v>62.32672164233622</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>388.9936461616009</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>304.5047560030946</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
@@ -37247,10 +37247,10 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37314,16 +37314,16 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L37" t="n">
-        <v>547.5562458447062</v>
+        <v>388.9936461616009</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O37" t="n">
-        <v>277.1599674523491</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,19 +37539,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37560,7 +37560,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37639,13 +37639,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O40" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,28 +37776,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37876,13 +37876,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N43" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O43" t="n">
-        <v>277.1599674523497</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
@@ -37961,7 +37961,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
@@ -38189,16 +38189,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>375.979434225829</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.10166275847587</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
